--- a/プログラム作成部分まとめExcel/20200824課題.xlsx
+++ b/プログラム作成部分まとめExcel/20200824課題.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minam\Desktop\課題用Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minam\Desktop\Parsonal\プログラム作成部分まとめExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB35B5D-990F-43EC-BEEB-41F4293C0A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAAD9F-2181-43AC-9617-015BB65AF27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CAEC449F-231D-4EB7-9DF5-39EE88FB30C5}"/>
   </bookViews>
@@ -1012,9 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D4FB1-45CC-4E8B-80C9-866E94CE6D52}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
